--- a/Lab02/Inf735-Lab02_DimTypeTaille.xlsx
+++ b/Lab02/Inf735-Lab02_DimTypeTaille.xlsx
@@ -376,6 +376,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
